--- a/inst/demo/NewFunctionsGroups.xlsx
+++ b/inst/demo/NewFunctionsGroups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\inst\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E73F36F-7305-4A69-8889-41D8CA24EA7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65630F30-DC46-478E-87FD-A28CC79CA953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" xr2:uid="{7A4A90F6-064F-4886-86AD-B143567B2204}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="156">
   <si>
     <t>chk1a_interview_completed</t>
   </si>
@@ -291,12 +291,6 @@
     <t>isInterviewInTheCorrectSite</t>
   </si>
   <si>
-    <t>isInterviewToShort</t>
-  </si>
-  <si>
-    <t>isInterviewToShortForTheHouseholdSize</t>
-  </si>
-  <si>
     <t>isInterviewWithConsent</t>
   </si>
   <si>
@@ -307,13 +301,205 @@
   </si>
   <si>
     <t>fl</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Stacked vertical bar</t>
+  </si>
+  <si>
+    <t>Vertical bar</t>
+  </si>
+  <si>
+    <t>Boxplot</t>
+  </si>
+  <si>
+    <t>Stacked horizontal bar</t>
+  </si>
+  <si>
+    <t>Horizontal bar</t>
+  </si>
+  <si>
+    <t>Boxplots (one per question)</t>
+  </si>
+  <si>
+    <t>surveySmallValues</t>
+  </si>
+  <si>
+    <t>Report the values lower than a specified value per specified fields</t>
+  </si>
+  <si>
+    <t>Check the average questions duration by enumerator</t>
+  </si>
+  <si>
+    <t>enumeratorQuestionsDuration</t>
+  </si>
+  <si>
+    <t>Report the outlier durations for each questions</t>
+  </si>
+  <si>
+    <t>assessmentQuestionsDurationOutliers</t>
+  </si>
+  <si>
+    <t>Pie Chart</t>
+  </si>
+  <si>
+    <t>Boxplots (one per enumerator)</t>
+  </si>
+  <si>
+    <t>isInterviewTooShort</t>
+  </si>
+  <si>
+    <t>isInterviewTooShortForTheHouseholdSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminBoundaries </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ds </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampledPoints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleSizeTable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">adminBoundariesSite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">consentForValidSurvey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateFormat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsCoordinates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsSite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">enumeratorID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HouseholdSize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumSurveDuration </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimumSurveDurationByIndividual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">otherPattern </t>
+  </si>
+  <si>
+    <t xml:space="preserve">questionsEnumeratorIsLazy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">questionsSurveySmallValues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleSizeTableAvailable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleSizeTableSite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sampleSizeTableTarget </t>
+  </si>
+  <si>
+    <t xml:space="preserve">startDataCollection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">surveyConsent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">surveyDate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniqueID </t>
+  </si>
+  <si>
+    <t>Datasets</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">questionsSurveyBigValues </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdval </t>
+  </si>
+  <si>
+    <t>formul</t>
+  </si>
+  <si>
+    <t>colorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsInterviewCompleted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsInterviewWithConsent </t>
+  </si>
+  <si>
+    <t xml:space="preserve">correctIsInterviewInTheCorrectSite </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsInterviewAtTheSamplePoint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsUniqueIDMissing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsUniqueIDDuplicated </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsSurveyOnMoreThanADay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsSurveyEndBeforeItStarts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsSurveyStartedBeforeTheAssessment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsSurveyMadeInTheFuture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsInterviewTooShort </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deleteIsInterviewTooShortForTheHouseholdSize </t>
+  </si>
+  <si>
+    <t>Default variables available</t>
+  </si>
+  <si>
+    <t>reportingColumns</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>enumeratorCheck</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,8 +515,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,8 +550,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -360,43 +579,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -422,6 +604,15 @@
     </border>
     <border>
       <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -431,7 +622,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -439,12 +630,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -453,18 +644,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -473,20 +813,106 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="75"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -801,642 +1227,2629 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD70189A-27B6-4F15-9D36-9D21CF41687D}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:AZ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="82.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1796875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.26953125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="26" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.54296875" customWidth="1"/>
+    <col min="28" max="52" width="3.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:52" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="E1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="F1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="P1" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q1" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="R1" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="S1" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="T1" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="U1" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="V1" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="X1" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y1" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="44" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="46" t="s">
+        <v>153</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL1" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM1" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AN1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO1" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP1" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="AR1" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS1" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="AT1" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW1" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX1" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY1" s="47" t="s">
+        <v>150</v>
+      </c>
+      <c r="AZ1" s="48" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+      <c r="AE2" s="19"/>
+      <c r="AF2" s="19"/>
+      <c r="AG2" s="19"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="19"/>
+      <c r="AJ2" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="19"/>
+      <c r="AM2" s="19"/>
+      <c r="AN2" s="19"/>
+      <c r="AO2" s="19"/>
+      <c r="AP2" s="19"/>
+      <c r="AQ2" s="19"/>
+      <c r="AR2" s="19"/>
+      <c r="AS2" s="19"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="19"/>
+      <c r="AX2" s="19"/>
+      <c r="AY2" s="19"/>
+      <c r="AZ2" s="20"/>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="str">
+        <f>LEFT(C3,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="31"/>
+      <c r="AK3" s="32"/>
+      <c r="AL3" s="32"/>
+      <c r="AM3" s="32"/>
+      <c r="AN3" s="32"/>
+      <c r="AO3" s="32"/>
+      <c r="AP3" s="32"/>
+      <c r="AQ3" s="32"/>
+      <c r="AR3" s="32"/>
+      <c r="AS3" s="32"/>
+      <c r="AT3" s="32"/>
+      <c r="AU3" s="32"/>
+      <c r="AV3" s="32"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="33"/>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="str">
+        <f>LEFT(C4,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="35"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ4" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="36"/>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="str">
+        <f>LEFT(C5,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="36"/>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="str">
+        <f>LEFT(C6,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="35"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="35"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="35"/>
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH6" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
+      <c r="AU6" s="35"/>
+      <c r="AV6" s="35"/>
+      <c r="AW6" s="35"/>
+      <c r="AX6" s="35"/>
+      <c r="AY6" s="35"/>
+      <c r="AZ6" s="36"/>
+    </row>
+    <row r="7" spans="1:52" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="str">
+        <f>LEFT(C7,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="37"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="39"/>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="str">
+        <f>LEFT(C8,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>93</v>
       </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="35"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH8" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="36"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="3" t="str">
-        <f>LEFT(G2,1)</f>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="str">
+        <f>LEFT(C9,1)</f>
         <v>a</v>
       </c>
+      <c r="B9" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF9" s="41"/>
+      <c r="AG9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH9" s="41"/>
+      <c r="AI9" s="41"/>
+      <c r="AJ9" s="40"/>
+      <c r="AK9" s="41"/>
+      <c r="AL9" s="41"/>
+      <c r="AM9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN9" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO9" s="41"/>
+      <c r="AP9" s="41"/>
+      <c r="AQ9" s="41"/>
+      <c r="AR9" s="41"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="41"/>
+      <c r="AV9" s="41"/>
+      <c r="AW9" s="41"/>
+      <c r="AX9" s="41"/>
+      <c r="AY9" s="41"/>
+      <c r="AZ9" s="42"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="6" t="str">
-        <f>LEFT(G3,1)</f>
-        <v>a</v>
-      </c>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A10" s="21" t="str">
+        <f>LEFT(C10,1)</f>
+        <v>e</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="32"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="32"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="32"/>
+      <c r="AL10" s="32"/>
+      <c r="AM10" s="32"/>
+      <c r="AN10" s="32"/>
+      <c r="AO10" s="32"/>
+      <c r="AP10" s="32"/>
+      <c r="AQ10" s="32"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="32"/>
+      <c r="AT10" s="32"/>
+      <c r="AU10" s="32"/>
+      <c r="AV10" s="32"/>
+      <c r="AW10" s="32"/>
+      <c r="AX10" s="32"/>
+      <c r="AY10" s="32"/>
+      <c r="AZ10" s="33"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="6" t="str">
-        <f>LEFT(G4,1)</f>
-        <v>a</v>
-      </c>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="str">
+        <f>LEFT(C11,1)</f>
+        <v>e</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="35"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="35"/>
+      <c r="AT11" s="35"/>
+      <c r="AU11" s="35"/>
+      <c r="AV11" s="35"/>
+      <c r="AW11" s="35"/>
+      <c r="AX11" s="35"/>
+      <c r="AY11" s="35"/>
+      <c r="AZ11" s="36"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="6" t="str">
-        <f>LEFT(G5,1)</f>
-        <v>a</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="6" t="str">
-        <f>LEFT(G6,1)</f>
-        <v>a</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="9" t="str">
-        <f>LEFT(G7,1)</f>
-        <v>a</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H8" s="3" t="str">
-        <f>LEFT(G8,1)</f>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A12" s="29" t="str">
+        <f>LEFT(C12,1)</f>
         <v>e</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="6" t="str">
-        <f>LEFT(G9,1)</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="6" t="str">
-        <f>LEFT(G10,1)</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="6" t="str">
-        <f>LEFT(G11,1)</f>
-        <v>e</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>59</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="H12" s="9" t="str">
-        <f>LEFT(G12,1)</f>
+        <v>59</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
+      <c r="AS12" s="35"/>
+      <c r="AT12" s="35"/>
+      <c r="AU12" s="35"/>
+      <c r="AV12" s="35"/>
+      <c r="AW12" s="35"/>
+      <c r="AX12" s="35"/>
+      <c r="AY12" s="35"/>
+      <c r="AZ12" s="36"/>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="str">
+        <f>LEFT(C13,1)</f>
         <v>e</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="35"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="34"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="36"/>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="str">
+        <f>LEFT(C14,1)</f>
+        <v>e</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="34"/>
+      <c r="K14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="35"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="36"/>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="str">
+        <f>LEFT(C15,1)</f>
+        <v>e</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="41"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="41"/>
+      <c r="AC15" s="41"/>
+      <c r="AD15" s="41"/>
+      <c r="AE15" s="41"/>
+      <c r="AF15" s="41"/>
+      <c r="AG15" s="41"/>
+      <c r="AH15" s="41"/>
+      <c r="AI15" s="41"/>
+      <c r="AJ15" s="40"/>
+      <c r="AK15" s="41"/>
+      <c r="AL15" s="41"/>
+      <c r="AM15" s="41"/>
+      <c r="AN15" s="41"/>
+      <c r="AO15" s="41"/>
+      <c r="AP15" s="41"/>
+      <c r="AQ15" s="41"/>
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="41"/>
+      <c r="AU15" s="41"/>
+      <c r="AV15" s="41"/>
+      <c r="AW15" s="41"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="42"/>
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="str">
+        <f>LEFT(C16,1)</f>
+        <v>i</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H13" s="3" t="str">
-        <f>LEFT(G13,1)</f>
+      <c r="D16" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="32"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
+      <c r="AA16" s="32"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="32"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ16" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP16" s="32"/>
+      <c r="AQ16" s="32"/>
+      <c r="AR16" s="32"/>
+      <c r="AS16" s="32"/>
+      <c r="AT16" s="32"/>
+      <c r="AU16" s="32"/>
+      <c r="AV16" s="32"/>
+      <c r="AW16" s="32"/>
+      <c r="AX16" s="32"/>
+      <c r="AY16" s="32"/>
+      <c r="AZ16" s="33"/>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="str">
+        <f>LEFT(C17,1)</f>
         <v>i</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L17" s="35"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ17" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
+      <c r="AS17" s="35"/>
+      <c r="AT17" s="35"/>
+      <c r="AU17" s="35"/>
+      <c r="AV17" s="35"/>
+      <c r="AW17" s="35"/>
+      <c r="AX17" s="35"/>
+      <c r="AY17" s="35"/>
+      <c r="AZ17" s="36"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="6" t="str">
-        <f>LEFT(G14,1)</f>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="str">
+        <f>LEFT(C18,1)</f>
         <v>i</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" s="35"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="U18" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ18" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR18" s="35"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="36"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="6" t="str">
-        <f>LEFT(G15,1)</f>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A19" s="25" t="str">
+        <f>LEFT(C19,1)</f>
         <v>i</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ19" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS19" s="35"/>
+      <c r="AT19" s="35"/>
+      <c r="AU19" s="35"/>
+      <c r="AV19" s="35"/>
+      <c r="AW19" s="35"/>
+      <c r="AX19" s="35"/>
+      <c r="AY19" s="35"/>
+      <c r="AZ19" s="36"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H16" s="6" t="str">
-        <f>LEFT(G16,1)</f>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A20" s="25" t="str">
+        <f>LEFT(C20,1)</f>
         <v>i</v>
       </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ20" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
+      <c r="AS20" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT20" s="35"/>
+      <c r="AU20" s="35"/>
+      <c r="AV20" s="35"/>
+      <c r="AW20" s="35"/>
+      <c r="AX20" s="35"/>
+      <c r="AY20" s="35"/>
+      <c r="AZ20" s="36"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="6" t="str">
-        <f>LEFT(G17,1)</f>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="str">
+        <f>LEFT(C21,1)</f>
         <v>i</v>
       </c>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="35"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ21" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
+      <c r="AS21" s="35"/>
+      <c r="AT21" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU21" s="35"/>
+      <c r="AV21" s="35"/>
+      <c r="AW21" s="35"/>
+      <c r="AX21" s="35"/>
+      <c r="AY21" s="35"/>
+      <c r="AZ21" s="36"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="6" t="str">
-        <f>LEFT(G18,1)</f>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="str">
+        <f>LEFT(C22,1)</f>
         <v>i</v>
       </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ22" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="35"/>
+      <c r="AU22" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV22" s="35"/>
+      <c r="AW22" s="35"/>
+      <c r="AX22" s="35"/>
+      <c r="AY22" s="35"/>
+      <c r="AZ22" s="36"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H19" s="6" t="str">
-        <f>LEFT(G19,1)</f>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A23" s="25" t="str">
+        <f>LEFT(C23,1)</f>
         <v>i</v>
       </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ23" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="35"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="36"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="6" t="str">
-        <f>LEFT(G20,1)</f>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A24" s="25" t="str">
+        <f>LEFT(C24,1)</f>
         <v>i</v>
       </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="34"/>
+      <c r="K24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L24" s="35"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="35"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="35"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH24" s="35"/>
+      <c r="AI24" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ24" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK24" s="35"/>
+      <c r="AL24" s="35"/>
+      <c r="AM24" s="35"/>
+      <c r="AN24" s="35"/>
+      <c r="AO24" s="35"/>
+      <c r="AP24" s="35"/>
+      <c r="AQ24" s="35"/>
+      <c r="AR24" s="35"/>
+      <c r="AS24" s="35"/>
+      <c r="AT24" s="35"/>
+      <c r="AU24" s="35"/>
+      <c r="AV24" s="35"/>
+      <c r="AW24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX24" s="35"/>
+      <c r="AY24" s="35"/>
+      <c r="AZ24" s="36"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="6" t="str">
-        <f>LEFT(G21,1)</f>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A25" s="25" t="str">
+        <f>LEFT(C25,1)</f>
         <v>i</v>
       </c>
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J25" s="34"/>
+      <c r="K25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="35"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ25" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK25" s="35"/>
+      <c r="AL25" s="35"/>
+      <c r="AM25" s="35"/>
+      <c r="AN25" s="35"/>
+      <c r="AO25" s="35"/>
+      <c r="AP25" s="35"/>
+      <c r="AQ25" s="35"/>
+      <c r="AR25" s="35"/>
+      <c r="AS25" s="35"/>
+      <c r="AT25" s="35"/>
+      <c r="AU25" s="35"/>
+      <c r="AV25" s="35"/>
+      <c r="AW25" s="35"/>
+      <c r="AX25" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY25" s="35"/>
+      <c r="AZ25" s="36"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="6" t="str">
-        <f>LEFT(G22,1)</f>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A26" s="25" t="str">
+        <f>LEFT(C26,1)</f>
         <v>i</v>
       </c>
+      <c r="B26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J26" s="34"/>
+      <c r="K26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="35"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+      <c r="Z26" s="35"/>
+      <c r="AA26" s="35"/>
+      <c r="AB26" s="35"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="35"/>
+      <c r="AG26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH26" s="35"/>
+      <c r="AI26" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ26" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK26" s="35"/>
+      <c r="AL26" s="35"/>
+      <c r="AM26" s="35"/>
+      <c r="AN26" s="35"/>
+      <c r="AO26" s="35"/>
+      <c r="AP26" s="35"/>
+      <c r="AQ26" s="35"/>
+      <c r="AR26" s="35"/>
+      <c r="AS26" s="35"/>
+      <c r="AT26" s="35"/>
+      <c r="AU26" s="35"/>
+      <c r="AV26" s="35"/>
+      <c r="AW26" s="35"/>
+      <c r="AX26" s="35"/>
+      <c r="AY26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AZ26" s="36"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H23" s="6" t="str">
-        <f>LEFT(G23,1)</f>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="str">
+        <f>LEFT(C27,1)</f>
         <v>i</v>
       </c>
+      <c r="B27" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="41"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="40"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ27" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK27" s="41"/>
+      <c r="AL27" s="41"/>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
+      <c r="AQ27" s="41"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="42" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="9" t="str">
-        <f>LEFT(G24,1)</f>
-        <v>i</v>
-      </c>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A28" s="21" t="str">
+        <f>LEFT(C28,1)</f>
+        <v>s</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="L28" s="32"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL28" s="32"/>
+      <c r="AM28" s="32"/>
+      <c r="AN28" s="32"/>
+      <c r="AO28" s="32"/>
+      <c r="AP28" s="32"/>
+      <c r="AQ28" s="32"/>
+      <c r="AR28" s="32"/>
+      <c r="AS28" s="32"/>
+      <c r="AT28" s="32"/>
+      <c r="AU28" s="32"/>
+      <c r="AV28" s="32"/>
+      <c r="AW28" s="32"/>
+      <c r="AX28" s="32"/>
+      <c r="AY28" s="32"/>
+      <c r="AZ28" s="33"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="3" t="str">
-        <f>LEFT(G25,1)</f>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A29" s="25" t="str">
+        <f>LEFT(C29,1)</f>
         <v>s</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+      <c r="Z29" s="35"/>
+      <c r="AA29" s="35"/>
+      <c r="AB29" s="35"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="35"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="35"/>
+      <c r="AG29" s="35"/>
+      <c r="AH29" s="35"/>
+      <c r="AI29" s="35"/>
+      <c r="AJ29" s="34"/>
+      <c r="AK29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL29" s="35"/>
+      <c r="AM29" s="35"/>
+      <c r="AN29" s="35"/>
+      <c r="AO29" s="35"/>
+      <c r="AP29" s="35"/>
+      <c r="AQ29" s="35"/>
+      <c r="AR29" s="35"/>
+      <c r="AS29" s="35"/>
+      <c r="AT29" s="35"/>
+      <c r="AU29" s="35"/>
+      <c r="AV29" s="35"/>
+      <c r="AW29" s="35"/>
+      <c r="AX29" s="35"/>
+      <c r="AY29" s="35"/>
+      <c r="AZ29" s="36"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="6" t="str">
-        <f>LEFT(G26,1)</f>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A30" s="25" t="str">
+        <f>LEFT(C30,1)</f>
         <v>s</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L30" s="35"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="35"/>
+      <c r="AN30" s="35"/>
+      <c r="AO30" s="35"/>
+      <c r="AP30" s="35"/>
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="35"/>
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="35"/>
+      <c r="AX30" s="35"/>
+      <c r="AY30" s="35"/>
+      <c r="AZ30" s="36"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="6" t="str">
-        <f>LEFT(G27,1)</f>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A31" s="25" t="str">
+        <f>LEFT(C31,1)</f>
         <v>s</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" s="34"/>
+      <c r="K31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="34"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="35"/>
+      <c r="AC31" s="35"/>
+      <c r="AD31" s="35"/>
+      <c r="AE31" s="35"/>
+      <c r="AF31" s="35"/>
+      <c r="AG31" s="35"/>
+      <c r="AH31" s="35"/>
+      <c r="AI31" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ31" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL31" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM31" s="35"/>
+      <c r="AN31" s="35"/>
+      <c r="AO31" s="35"/>
+      <c r="AP31" s="35"/>
+      <c r="AQ31" s="35"/>
+      <c r="AR31" s="35"/>
+      <c r="AS31" s="35"/>
+      <c r="AT31" s="35"/>
+      <c r="AU31" s="35"/>
+      <c r="AV31" s="35"/>
+      <c r="AW31" s="35"/>
+      <c r="AX31" s="35"/>
+      <c r="AY31" s="35"/>
+      <c r="AZ31" s="36"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H28" s="6" t="str">
-        <f>LEFT(G28,1)</f>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A32" s="29" t="str">
+        <f>LEFT(C32,1)</f>
         <v>s</v>
       </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="L32" s="35"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ32" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL32" s="35"/>
+      <c r="AM32" s="35"/>
+      <c r="AN32" s="35"/>
+      <c r="AO32" s="35"/>
+      <c r="AP32" s="35"/>
+      <c r="AQ32" s="35"/>
+      <c r="AR32" s="35"/>
+      <c r="AS32" s="35"/>
+      <c r="AT32" s="35"/>
+      <c r="AU32" s="35"/>
+      <c r="AV32" s="35"/>
+      <c r="AW32" s="35"/>
+      <c r="AX32" s="35"/>
+      <c r="AY32" s="35"/>
+      <c r="AZ32" s="36"/>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="7" t="s">
+    <row r="33" spans="1:52" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="str">
+        <f>LEFT(C33,1)</f>
+        <v>s</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C33" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H29" s="9" t="str">
-        <f>LEFT(G29,1)</f>
-        <v>s</v>
-      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="41"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
+      <c r="AD33" s="41"/>
+      <c r="AE33" s="41"/>
+      <c r="AF33" s="41"/>
+      <c r="AG33" s="41"/>
+      <c r="AH33" s="41"/>
+      <c r="AI33" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ33" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK33" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL33" s="41"/>
+      <c r="AM33" s="41"/>
+      <c r="AN33" s="41"/>
+      <c r="AO33" s="41"/>
+      <c r="AP33" s="41"/>
+      <c r="AQ33" s="41"/>
+      <c r="AR33" s="41"/>
+      <c r="AS33" s="41"/>
+      <c r="AT33" s="41"/>
+      <c r="AU33" s="41"/>
+      <c r="AV33" s="41"/>
+      <c r="AW33" s="41"/>
+      <c r="AX33" s="41"/>
+      <c r="AY33" s="41"/>
+      <c r="AZ33" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H29">
-    <sortCondition ref="H2:H29"/>
-    <sortCondition ref="A2:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H33">
+    <sortCondition ref="B3:B33"/>
   </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:AI2"/>
+    <mergeCell ref="AJ2:AZ2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/inst/demo/NewFunctionsGroups.xlsx
+++ b/inst/demo/NewFunctionsGroups.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yanni\Documents\GitHub\HighFrequencyChecks\inst\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBC1DDE-4F91-456F-95A5-00C840AB28CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EAFA52D-D469-4BA7-87EA-2A3CA6406896}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" xr2:uid="{7A4A90F6-064F-4886-86AD-B143567B2204}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="30220" windowHeight="19760" activeTab="1" xr2:uid="{7A4A90F6-064F-4886-86AD-B143567B2204}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
+    <sheet name="FunctionsConfiguration" sheetId="4" r:id="rId2"/>
+    <sheet name="OptionalVariables" sheetId="2" r:id="rId3"/>
+    <sheet name="NecessaryVariables" sheetId="6" r:id="rId4"/>
+    <sheet name="RecommendedOutput" sheetId="3" r:id="rId5"/>
+    <sheet name="GraphicAvailable" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="179">
   <si>
     <t>chk1a_interview_completed</t>
   </si>
@@ -493,6 +498,75 @@
   </si>
   <si>
     <t>R</t>
+  </si>
+  <si>
+    <t>deleteIsInterviewTooShortForTheHouseholdSize</t>
+  </si>
+  <si>
+    <t>sdval</t>
+  </si>
+  <si>
+    <t>deleteIsInterviewCompleted</t>
+  </si>
+  <si>
+    <t>deleteIsInterviewWithConsent</t>
+  </si>
+  <si>
+    <t>correctIsInterviewInTheCorrectSite</t>
+  </si>
+  <si>
+    <t>deleteIsInterviewAtTheSamplePoint</t>
+  </si>
+  <si>
+    <t>deleteIsUniqueIDMissing</t>
+  </si>
+  <si>
+    <t>deleteIsUniqueIDDuplicated</t>
+  </si>
+  <si>
+    <t>deleteIsSurveyOnMoreThanADay</t>
+  </si>
+  <si>
+    <t>deleteIsSurveyEndBeforeItStarts</t>
+  </si>
+  <si>
+    <t>deleteIsSurveyStartedBeforeTheAssessment</t>
+  </si>
+  <si>
+    <t>deleteIsSurveyMadeInTheFuture</t>
+  </si>
+  <si>
+    <t>deleteIsInterviewTooShort</t>
+  </si>
+  <si>
+    <t>optionalVariables</t>
+  </si>
+  <si>
+    <t>FunctionName</t>
+  </si>
+  <si>
+    <t>csv</t>
+  </si>
+  <si>
+    <t>grp</t>
+  </si>
+  <si>
+    <t>ord</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>functionName</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>outputType</t>
   </si>
 </sst>
 </file>
@@ -818,7 +892,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -895,6 +969,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,11 +983,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD70189A-27B6-4F15-9D36-9D21CF41687D}">
   <dimension ref="A1:BA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,56 +1492,56 @@
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="40" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41"/>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="41"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="40" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+      <c r="AC2" s="44"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="44"/>
+      <c r="AF2" s="44"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="41"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="41"/>
-      <c r="AP2" s="41"/>
-      <c r="AQ2" s="41"/>
-      <c r="AR2" s="41"/>
-      <c r="AS2" s="41"/>
-      <c r="AT2" s="41"/>
-      <c r="AU2" s="41"/>
-      <c r="AV2" s="41"/>
-      <c r="AW2" s="41"/>
-      <c r="AX2" s="41"/>
-      <c r="AY2" s="41"/>
-      <c r="AZ2" s="41"/>
-      <c r="BA2" s="42"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="44"/>
+      <c r="AP2" s="44"/>
+      <c r="AQ2" s="44"/>
+      <c r="AR2" s="44"/>
+      <c r="AS2" s="44"/>
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="44"/>
+      <c r="AV2" s="44"/>
+      <c r="AW2" s="44"/>
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="45"/>
     </row>
     <row r="3" spans="1:53" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="str">
@@ -1623,7 +1699,7 @@
         <v>a</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="42" t="s">
         <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -1904,10 +1980,10 @@
       <c r="AK8" s="29"/>
       <c r="AL8" s="30"/>
       <c r="AM8" s="30"/>
-      <c r="AN8" s="44" t="s">
+      <c r="AN8" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="AO8" s="44" t="s">
+      <c r="AO8" s="41" t="s">
         <v>155</v>
       </c>
       <c r="AP8" s="30"/>
@@ -2077,7 +2153,7 @@
         <v>e</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="42" t="s">
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2291,13 +2367,13 @@
         <v>e</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="43" t="s">
+      <c r="C14" s="40" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="40" t="s">
         <v>57</v>
       </c>
       <c r="H14" s="2"/>
@@ -2605,7 +2681,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J18" s="26" t="s">
@@ -2693,7 +2769,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J19" s="26"/>
@@ -2779,7 +2855,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J20" s="26"/>
@@ -2859,7 +2935,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J21" s="26"/>
@@ -2939,7 +3015,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J22" s="26"/>
@@ -3021,7 +3097,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J23" s="26"/>
@@ -3103,7 +3179,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J24" s="26"/>
@@ -3187,7 +3263,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="4" t="s">
         <v>102</v>
       </c>
       <c r="J25" s="26"/>
@@ -3883,4 +3959,3378 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D40B70AC-0363-4C2F-A326-B38AFE4B01EA}">
+  <dimension ref="A1:AV32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="48" width="3.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" ht="232.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="W1" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="X1" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="AA1" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF1" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="AH1" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="AI1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ1" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="AK1" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL1" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM1" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN1" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO1" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP1" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ1" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR1" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT1" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU1" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV1" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="str">
+        <f t="shared" ref="A2:A32" si="0">LEFT(C2,1)</f>
+        <v>a</v>
+      </c>
+      <c r="B2" s="16">
+        <v>130</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="25"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="B3" s="2">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="27"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="28"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="B4" s="16">
+        <v>150</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
+      <c r="W4" s="27"/>
+      <c r="X4" s="27"/>
+      <c r="Y4" s="27"/>
+      <c r="Z4" s="27"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
+      <c r="AI4" s="27"/>
+      <c r="AJ4" s="27"/>
+      <c r="AK4" s="27"/>
+      <c r="AL4" s="27"/>
+      <c r="AM4" s="27"/>
+      <c r="AN4" s="27"/>
+      <c r="AO4" s="27"/>
+      <c r="AP4" s="27"/>
+      <c r="AQ4" s="27"/>
+      <c r="AR4" s="27"/>
+      <c r="AS4" s="27"/>
+      <c r="AT4" s="27"/>
+      <c r="AU4" s="27"/>
+      <c r="AV4" s="28"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A5" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="B5" s="2">
+        <v>160</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="27"/>
+      <c r="AK5" s="27"/>
+      <c r="AL5" s="27"/>
+      <c r="AM5" s="27"/>
+      <c r="AN5" s="27"/>
+      <c r="AO5" s="27"/>
+      <c r="AP5" s="27"/>
+      <c r="AQ5" s="27"/>
+      <c r="AR5" s="27"/>
+      <c r="AS5" s="27"/>
+      <c r="AT5" s="27"/>
+      <c r="AU5" s="27"/>
+      <c r="AV5" s="28"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="B6" s="16">
+        <v>170</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="27"/>
+      <c r="AL6" s="27"/>
+      <c r="AM6" s="27"/>
+      <c r="AN6" s="27"/>
+      <c r="AO6" s="27"/>
+      <c r="AP6" s="27"/>
+      <c r="AQ6" s="27"/>
+      <c r="AR6" s="27"/>
+      <c r="AS6" s="27"/>
+      <c r="AT6" s="27"/>
+      <c r="AU6" s="27"/>
+      <c r="AV6" s="28"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A7" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>a</v>
+      </c>
+      <c r="B7" s="2">
+        <v>180</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="29"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ7" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="30"/>
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="30"/>
+      <c r="AQ7" s="30"/>
+      <c r="AR7" s="30"/>
+      <c r="AS7" s="30"/>
+      <c r="AT7" s="30"/>
+      <c r="AU7" s="30"/>
+      <c r="AV7" s="31"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B8" s="16">
+        <v>250</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+      <c r="AI8" s="24"/>
+      <c r="AJ8" s="24"/>
+      <c r="AK8" s="24"/>
+      <c r="AL8" s="24"/>
+      <c r="AM8" s="24"/>
+      <c r="AN8" s="24"/>
+      <c r="AO8" s="24"/>
+      <c r="AP8" s="24"/>
+      <c r="AQ8" s="24"/>
+      <c r="AR8" s="24"/>
+      <c r="AS8" s="24"/>
+      <c r="AT8" s="24"/>
+      <c r="AU8" s="24"/>
+      <c r="AV8" s="25"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B9" s="16">
+        <v>260</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
+      <c r="AI9" s="27"/>
+      <c r="AJ9" s="27"/>
+      <c r="AK9" s="27"/>
+      <c r="AL9" s="27"/>
+      <c r="AM9" s="27"/>
+      <c r="AN9" s="27"/>
+      <c r="AO9" s="27"/>
+      <c r="AP9" s="27"/>
+      <c r="AQ9" s="27"/>
+      <c r="AR9" s="27"/>
+      <c r="AS9" s="27"/>
+      <c r="AT9" s="27"/>
+      <c r="AU9" s="27"/>
+      <c r="AV9" s="28"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B10" s="16">
+        <v>270</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AI10" s="27"/>
+      <c r="AJ10" s="27"/>
+      <c r="AK10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AM10" s="27"/>
+      <c r="AN10" s="27"/>
+      <c r="AO10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AQ10" s="27"/>
+      <c r="AR10" s="27"/>
+      <c r="AS10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AU10" s="27"/>
+      <c r="AV10" s="28"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A11" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B11" s="16">
+        <v>280</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="26"/>
+      <c r="AG11" s="27"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="27"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="27"/>
+      <c r="AM11" s="27"/>
+      <c r="AN11" s="27"/>
+      <c r="AO11" s="27"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="27"/>
+      <c r="AR11" s="27"/>
+      <c r="AS11" s="27"/>
+      <c r="AT11" s="27"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="28"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A12" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B12" s="16">
+        <v>290</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="27"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="27"/>
+      <c r="AH12" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI12" s="27"/>
+      <c r="AJ12" s="27"/>
+      <c r="AK12" s="27"/>
+      <c r="AL12" s="27"/>
+      <c r="AM12" s="27"/>
+      <c r="AN12" s="27"/>
+      <c r="AO12" s="27"/>
+      <c r="AP12" s="27"/>
+      <c r="AQ12" s="27"/>
+      <c r="AR12" s="27"/>
+      <c r="AS12" s="27"/>
+      <c r="AT12" s="27"/>
+      <c r="AU12" s="27"/>
+      <c r="AV12" s="28"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B13" s="16">
+        <v>300</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="V13" s="27"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="26"/>
+      <c r="AG13" s="27"/>
+      <c r="AH13" s="27"/>
+      <c r="AI13" s="27"/>
+      <c r="AJ13" s="27"/>
+      <c r="AK13" s="27"/>
+      <c r="AL13" s="27"/>
+      <c r="AM13" s="27"/>
+      <c r="AN13" s="27"/>
+      <c r="AO13" s="27"/>
+      <c r="AP13" s="27"/>
+      <c r="AQ13" s="27"/>
+      <c r="AR13" s="27"/>
+      <c r="AS13" s="27"/>
+      <c r="AT13" s="27"/>
+      <c r="AU13" s="27"/>
+      <c r="AV13" s="28"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>e</v>
+      </c>
+      <c r="B14" s="16">
+        <v>310</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="30"/>
+      <c r="AR14" s="30"/>
+      <c r="AS14" s="30"/>
+      <c r="AT14" s="30"/>
+      <c r="AU14" s="30"/>
+      <c r="AV14" s="31"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B15" s="16">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24"/>
+      <c r="AK15" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24"/>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24"/>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24"/>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="25"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="26"/>
+      <c r="F16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF16" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
+      <c r="AI16" s="27"/>
+      <c r="AJ16" s="27"/>
+      <c r="AK16" s="27"/>
+      <c r="AL16" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM16" s="27"/>
+      <c r="AN16" s="27"/>
+      <c r="AO16" s="27"/>
+      <c r="AP16" s="27"/>
+      <c r="AQ16" s="27"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="28"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B17" s="16">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27"/>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD17" s="27"/>
+      <c r="AE17" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG17" s="27"/>
+      <c r="AH17" s="27"/>
+      <c r="AI17" s="27"/>
+      <c r="AJ17" s="27"/>
+      <c r="AK17" s="27"/>
+      <c r="AL17" s="27"/>
+      <c r="AM17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AN17" s="27"/>
+      <c r="AO17" s="27"/>
+      <c r="AP17" s="27"/>
+      <c r="AQ17" s="27"/>
+      <c r="AR17" s="27"/>
+      <c r="AS17" s="27"/>
+      <c r="AT17" s="27"/>
+      <c r="AU17" s="27"/>
+      <c r="AV17" s="28"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A18" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" s="28"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27"/>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF18" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="27"/>
+      <c r="AJ18" s="27"/>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="28"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A19" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B19" s="16">
+        <v>50</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="27"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27"/>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD19" s="27"/>
+      <c r="AE19" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF19" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="27"/>
+      <c r="AH19" s="27"/>
+      <c r="AI19" s="27"/>
+      <c r="AJ19" s="27"/>
+      <c r="AK19" s="27"/>
+      <c r="AL19" s="27"/>
+      <c r="AM19" s="27"/>
+      <c r="AN19" s="27"/>
+      <c r="AO19" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP19" s="27"/>
+      <c r="AQ19" s="27"/>
+      <c r="AR19" s="27"/>
+      <c r="AS19" s="27"/>
+      <c r="AT19" s="27"/>
+      <c r="AU19" s="27"/>
+      <c r="AV19" s="28"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B20" s="2">
+        <v>60</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="27"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="27"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="27"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="27"/>
+      <c r="AB20" s="27"/>
+      <c r="AC20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD20" s="27"/>
+      <c r="AE20" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF20" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG20" s="27"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="27"/>
+      <c r="AK20" s="27"/>
+      <c r="AL20" s="27"/>
+      <c r="AM20" s="27"/>
+      <c r="AN20" s="27"/>
+      <c r="AO20" s="27"/>
+      <c r="AP20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ20" s="27"/>
+      <c r="AR20" s="27"/>
+      <c r="AS20" s="27"/>
+      <c r="AT20" s="27"/>
+      <c r="AU20" s="27"/>
+      <c r="AV20" s="28"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A21" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B21" s="16">
+        <v>70</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="27"/>
+      <c r="AB21" s="27"/>
+      <c r="AC21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD21" s="27"/>
+      <c r="AE21" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG21" s="27"/>
+      <c r="AH21" s="27"/>
+      <c r="AI21" s="27"/>
+      <c r="AJ21" s="27"/>
+      <c r="AK21" s="27"/>
+      <c r="AL21" s="27"/>
+      <c r="AM21" s="27"/>
+      <c r="AN21" s="27"/>
+      <c r="AO21" s="27"/>
+      <c r="AP21" s="27"/>
+      <c r="AQ21" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR21" s="27"/>
+      <c r="AS21" s="27"/>
+      <c r="AT21" s="27"/>
+      <c r="AU21" s="27"/>
+      <c r="AV21" s="28"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B22" s="2">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="27"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="27"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD22" s="27"/>
+      <c r="AE22" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF22" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG22" s="27"/>
+      <c r="AH22" s="27"/>
+      <c r="AI22" s="27"/>
+      <c r="AJ22" s="27"/>
+      <c r="AK22" s="27"/>
+      <c r="AL22" s="27"/>
+      <c r="AM22" s="27"/>
+      <c r="AN22" s="27"/>
+      <c r="AO22" s="27"/>
+      <c r="AP22" s="27"/>
+      <c r="AQ22" s="27"/>
+      <c r="AR22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS22" s="27"/>
+      <c r="AT22" s="27"/>
+      <c r="AU22" s="27"/>
+      <c r="AV22" s="28"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A23" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B23" s="16">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="27"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="27"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD23" s="27"/>
+      <c r="AE23" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF23" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG23" s="27"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="27"/>
+      <c r="AK23" s="27"/>
+      <c r="AL23" s="27"/>
+      <c r="AM23" s="27"/>
+      <c r="AN23" s="27"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AT23" s="27"/>
+      <c r="AU23" s="27"/>
+      <c r="AV23" s="28"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B24" s="2">
+        <v>100</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD24" s="27"/>
+      <c r="AE24" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF24" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG24" s="27"/>
+      <c r="AH24" s="27"/>
+      <c r="AI24" s="27"/>
+      <c r="AJ24" s="27"/>
+      <c r="AK24" s="27"/>
+      <c r="AL24" s="27"/>
+      <c r="AM24" s="27"/>
+      <c r="AN24" s="27"/>
+      <c r="AO24" s="27"/>
+      <c r="AP24" s="27"/>
+      <c r="AQ24" s="27"/>
+      <c r="AR24" s="27"/>
+      <c r="AS24" s="27"/>
+      <c r="AT24" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU24" s="27"/>
+      <c r="AV24" s="28"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A25" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B25" s="16">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="S25" s="27"/>
+      <c r="T25" s="27"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD25" s="27"/>
+      <c r="AE25" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF25" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG25" s="27"/>
+      <c r="AH25" s="27"/>
+      <c r="AI25" s="27"/>
+      <c r="AJ25" s="27"/>
+      <c r="AK25" s="27"/>
+      <c r="AL25" s="27"/>
+      <c r="AM25" s="27"/>
+      <c r="AN25" s="27"/>
+      <c r="AO25" s="27"/>
+      <c r="AP25" s="27"/>
+      <c r="AQ25" s="27"/>
+      <c r="AR25" s="27"/>
+      <c r="AS25" s="27"/>
+      <c r="AT25" s="27"/>
+      <c r="AU25" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV25" s="28"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A26" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>i</v>
+      </c>
+      <c r="B26" s="2">
+        <v>120</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="30"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF26" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="30"/>
+      <c r="AM26" s="30"/>
+      <c r="AN26" s="30"/>
+      <c r="AO26" s="30"/>
+      <c r="AP26" s="30"/>
+      <c r="AQ26" s="30"/>
+      <c r="AR26" s="30"/>
+      <c r="AS26" s="30"/>
+      <c r="AT26" s="30"/>
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A27" s="14" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B27" s="16">
+        <v>190</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="24"/>
+      <c r="X27" s="24"/>
+      <c r="Y27" s="24"/>
+      <c r="Z27" s="24"/>
+      <c r="AA27" s="24"/>
+      <c r="AB27" s="24"/>
+      <c r="AC27" s="24"/>
+      <c r="AD27" s="24"/>
+      <c r="AE27" s="24"/>
+      <c r="AF27" s="23"/>
+      <c r="AG27" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH27" s="24"/>
+      <c r="AI27" s="24"/>
+      <c r="AJ27" s="24"/>
+      <c r="AK27" s="24"/>
+      <c r="AL27" s="24"/>
+      <c r="AM27" s="24"/>
+      <c r="AN27" s="24"/>
+      <c r="AO27" s="24"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="24"/>
+      <c r="AR27" s="24"/>
+      <c r="AS27" s="24"/>
+      <c r="AT27" s="24"/>
+      <c r="AU27" s="24"/>
+      <c r="AV27" s="25"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A28" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B28" s="40">
+        <v>200</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27"/>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="26"/>
+      <c r="AG28" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH28" s="27"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27"/>
+      <c r="AK28" s="27"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27"/>
+      <c r="AN28" s="27"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27"/>
+      <c r="AQ28" s="27"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27"/>
+      <c r="AT28" s="27"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="28"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B29" s="16">
+        <v>210</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27"/>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="26"/>
+      <c r="AG29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH29" s="27"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27"/>
+      <c r="AK29" s="27"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27"/>
+      <c r="AN29" s="27"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27"/>
+      <c r="AQ29" s="27"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27"/>
+      <c r="AT29" s="27"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="28"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A30" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B30" s="40">
+        <v>220</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="27"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27"/>
+      <c r="AE30" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF30" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH30" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27"/>
+      <c r="AK30" s="27"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27"/>
+      <c r="AN30" s="27"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27"/>
+      <c r="AQ30" s="27"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27"/>
+      <c r="AT30" s="27"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="28"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B31" s="16">
+        <v>230</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF31" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG31" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH31" s="27"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27"/>
+      <c r="AK31" s="27"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27"/>
+      <c r="AN31" s="27"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27"/>
+      <c r="AQ31" s="27"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27"/>
+      <c r="AT31" s="27"/>
+      <c r="AU31" s="27"/>
+      <c r="AV31" s="28"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>s</v>
+      </c>
+      <c r="B32" s="40">
+        <v>240</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="30"/>
+      <c r="S32" s="30"/>
+      <c r="T32" s="30"/>
+      <c r="U32" s="30"/>
+      <c r="V32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="30"/>
+      <c r="AA32" s="30"/>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="30"/>
+      <c r="AD32" s="30"/>
+      <c r="AE32" s="30" t="s">
+        <v>151</v>
+      </c>
+      <c r="AF32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG32" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH32" s="30"/>
+      <c r="AI32" s="30"/>
+      <c r="AJ32" s="30"/>
+      <c r="AK32" s="30"/>
+      <c r="AL32" s="30"/>
+      <c r="AM32" s="30"/>
+      <c r="AN32" s="30"/>
+      <c r="AO32" s="30"/>
+      <c r="AP32" s="30"/>
+      <c r="AQ32" s="30"/>
+      <c r="AR32" s="30"/>
+      <c r="AS32" s="30"/>
+      <c r="AT32" s="30"/>
+      <c r="AU32" s="30"/>
+      <c r="AV32" s="31"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DC6EA0-8AAF-4621-B499-4522F637ECEB}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="41.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD4D842-6910-42EB-864A-DEA748EC1322}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="A32:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C6" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C10" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C16" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C18" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C21" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C22" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C23" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C24" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C25" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="C26" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C27" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C28" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C29" s="24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C30" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C31" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="C32" s="27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E85448C-284B-4D9E-B161-741D5F8A0436}">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="42"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="16"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="40"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4D44D3-0682-4B65-A711-EABBE4520B4C}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.26953125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>